--- a/app/Отчеты/Nadezhda.xlsx
+++ b/app/Отчеты/Nadezhda.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -24,26 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
-  <si>
-    <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
   <si>
-    <t>Начислено за ${lc.date} г. :</t>
-  </si>
-  <si>
-    <t>${lc.saldo.full_calc}</t>
-  </si>
-  <si>
-    <t>Долг, переплата(-) на ${lc.day} г. :</t>
-  </si>
-  <si>
-    <t>${lc.saldo.penalties_cur}</t>
-  </si>
-  <si>
     <t>СЧЕТ-КВИТАНЦИЯ</t>
   </si>
   <si>
@@ -65,12 +45,6 @@
     <t>Начислено</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${lc.sums}" var ="sum1"&gt;</t>
-  </si>
-  <si>
     <t>${sum1.count}</t>
   </si>
   <si>
@@ -95,12 +69,6 @@
     <t>Итого:</t>
   </si>
   <si>
-    <t>${lc.saldo.calc}</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${lc.counter}" var ="counter"&gt;</t>
-  </si>
-  <si>
     <t>${counter.usl_name}</t>
   </si>
   <si>
@@ -113,12 +81,6 @@
     <t>${counter.cons_val}</t>
   </si>
   <si>
-    <t>${lc.saldo.debt}</t>
-  </si>
-  <si>
-    <t>${lc.saldo.full_end}</t>
-  </si>
-  <si>
     <t>За тех. обслуживание и коммунальные услуги</t>
   </si>
   <si>
@@ -137,9 +99,6 @@
     <t>${Group.grp_fname}</t>
   </si>
   <si>
-    <t>${lc.chars_str}</t>
-  </si>
-  <si>
     <t>Плательщик: ____________________________________</t>
   </si>
   <si>
@@ -150,40 +109,6 @@
   </si>
   <si>
     <t>Кассир: ____________________________________</t>
-  </si>
-  <si>
-    <t>${lc.saldo.recalc}</t>
-  </si>
-  <si>
-    <r>
-      <t>Адрес:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> ${Group.grp_address}, ${Group.grp_name},  кв.${lc.lc_flatnumber} </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Плательщик:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> ${lc.lc_regto} </t>
-    </r>
   </si>
   <si>
     <r>
@@ -209,12 +134,313 @@
   <si>
     <t>БИК ${Group.bank_bik}        К/с ${Group.bank_correction}</t>
   </si>
+  <si>
+    <r>
+      <t>Плательщик:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ${Flats.ar[0].lc_regto} </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Адрес:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ${Group.grp_address}, ${Group.grp_name},  кв.${Flats.ar[0].lc_flatnumber} </t>
+    </r>
+  </si>
+  <si>
+    <t>${Flats.ar[0].chars_str}</t>
+  </si>
+  <si>
+    <t>Начислено за ${Flats.ar[0].date} г. :</t>
+  </si>
+  <si>
+    <t>Долг, переплата(-) на ${Flats.ar[0].day} г. :</t>
+  </si>
+  <si>
+    <t>${Flats.ar[0].saldo.full_calc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[0].saldo.penalties_cur}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[0].saldo.full_end}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${Flats.ar[0].sums}" var ="sum1"&gt;</t>
+  </si>
+  <si>
+    <t>${Flats.ar[0].saldo.calc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[0].saldo.recalc}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${Flats.ar[0].counter}" var ="counter"&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Адрес:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ${Group.grp_address}, ${Group.grp_name},  кв.${Flats.ar[1].lc_flatnumber} </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Плательщик:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ${Flats.ar[1].lc_regto} </t>
+    </r>
+  </si>
+  <si>
+    <t>${Flats.ar[1].chars_str}</t>
+  </si>
+  <si>
+    <r>
+      <t>Проживает:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ${Flats.ar[1].reg_count}  чел.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Проживает:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ${Flats.ar[2].reg_count}  чел.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Проживает:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ${Flats.ar[3].reg_count}  чел.</t>
+    </r>
+  </si>
+  <si>
+    <t>Начислено за ${Flats.ar[1].date} г. :</t>
+  </si>
+  <si>
+    <t>Долг, переплата(-) на ${Flats.ar[1].day} г. :</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].saldo.full_calc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].saldo.penalties_cur}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].saldo.full_end}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].saldo.debt}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].saldo.debt}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${Flats.ar[1].sums}" var ="sum1"&gt;</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].saldo.calc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].saldo.recalc}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${Flats.ar[1].counter}" var ="counter"&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Адрес:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ${Group.grp_address}, ${Group.grp_name},  кв.${Flats.ar[2].lc_flatnumber} </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Плательщик:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ${Flats.ar[2].lc_regto} </t>
+    </r>
+  </si>
+  <si>
+    <t>${Flats.ar[2].chars_str}</t>
+  </si>
+  <si>
+    <t>Начислено за ${Flats.ar[2].date} г. :</t>
+  </si>
+  <si>
+    <t>Долг, переплата(-) на ${Flats.ar[2].day} г. :</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].saldo.full_calc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].saldo.debt}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].saldo.penalties_cur}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].saldo.full_end}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${Flats.ar[2].sums}" var ="sum1"&gt;</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].saldo.calc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].saldo.recalc}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${Flats.ar[2].counter}" var ="counter"&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Адрес:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ${Group.grp_address}, ${Group.grp_name},  кв.${Flats.ar[3].lc_flatnumber} </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Плательщик:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ${Flats.ar[3].lc_regto} </t>
+    </r>
+  </si>
+  <si>
+    <t>${Flats.ar[3].chars_str}</t>
+  </si>
+  <si>
+    <t>Начислено за ${Flats.ar[3].date} г. :</t>
+  </si>
+  <si>
+    <t>Долг, переплата(-) на ${Flats.ar[3].day} г. :</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].saldo.full_calc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].saldo.penalties_cur}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].saldo.full_end}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${Flats.ar[3].sums}" var ="sum1"&gt;</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].saldo.calc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].saldo.recalc}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${Flats.ar[3].counter}" var ="counter"&gt;</t>
+  </si>
+  <si>
+    <t>${Flats.ar[0].saldo.debt}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -247,12 +473,6 @@
       <b/>
       <sz val="11"/>
       <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -728,53 +948,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -782,18 +973,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -806,53 +991,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -864,13 +1034,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -892,8 +1062,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1290,429 +1512,1456 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
     <col min="6" max="7" width="11.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.85546875" style="1"/>
+    <col min="11" max="11" width="10.85546875" style="1"/>
+    <col min="12" max="12" width="18" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="57"/>
+    </row>
+    <row r="8" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="I9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="R9" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="I10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="R10" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="I11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="R11" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="I12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="R12" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="1:18" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="60"/>
+      <c r="N15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="23"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="62"/>
+      <c r="E17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="62"/>
+      <c r="N17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="23"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="64"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="R19" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="L21" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" s="7"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="57"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="R33" s="57"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="I35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="R35" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="I36" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="R36" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="I37" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="R37" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="I38" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="R38" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" s="11"/>
+      <c r="O39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R39" s="12"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="60"/>
+      <c r="E41" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
+      <c r="I41" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="15"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="I10" s="17" t="s">
+      <c r="M41" s="60"/>
+      <c r="N41" s="17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
+      <c r="O41" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="I11" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="I12" s="18" t="s">
+      <c r="P41" s="17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="I13" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26" t="s">
+      <c r="Q41" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R41" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28" t="s">
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K42" s="21"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="23"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="C43" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="D43" s="62"/>
+      <c r="E43" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="F43" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="G43" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="H43" s="27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="I43" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="34"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36" t="s">
+      <c r="J43" s="24"/>
+      <c r="K43" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="M43" s="62"/>
+      <c r="N43" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="R43" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="21"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="23"/>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="D45" s="64"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" s="20"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" s="64"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="R45" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="L47" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O48" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K49" s="20"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39" t="s">
+      <c r="D50" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="E50" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="F50" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="34"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="O50" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="20"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="56">
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R4"/>
     <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D3:I3"/>
     <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D7:G7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:G22"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">

--- a/app/Отчеты/Nadezhda.xlsx
+++ b/app/Отчеты/Nadezhda.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="109">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
@@ -345,16 +345,10 @@
     <t>${Flats.ar[2].saldo.full_end}</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${Flats.ar[2].sums}" var ="sum1"&gt;</t>
-  </si>
-  <si>
     <t>${Flats.ar[2].saldo.calc}</t>
   </si>
   <si>
     <t>${Flats.ar[2].saldo.recalc}</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${Flats.ar[2].counter}" var ="counter"&gt;</t>
   </si>
   <si>
     <r>
@@ -424,19 +418,82 @@
     <t>${Flats.ar[3].saldo.full_end}</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${Flats.ar[3].sums}" var ="sum1"&gt;</t>
-  </si>
-  <si>
     <t>${Flats.ar[3].saldo.calc}</t>
   </si>
   <si>
     <t>${Flats.ar[3].saldo.recalc}</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${Flats.ar[3].counter}" var ="counter"&gt;</t>
-  </si>
-  <si>
     <t>Плательщик: _____________________________</t>
+  </si>
+  <si>
+    <t>${sum1.count-1}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].sums[sum1.count-1].count}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].sums[sum1.count-1].usl_name}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].sums[sum1.count-1].rate}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].sums[sum1.count-1].calc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].sums[sum1.count-1].benefit}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].sums[sum1.count-1].recalc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].sums[sum1.count-1].full_calc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].sums[sum1.count-1].count}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].sums[sum1.count-1].usl_name}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].sums[sum1.count-1].rate}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].sums[sum1.count-1].calc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].sums[sum1.count-1].benefit}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].sums[sum1.count-1].recalc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].sums[sum1.count-1].full_calc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].counter[counter.count-1].usl_name}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].counter[counter.count-1].end_val}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].counter[counter.count-1].beg_val}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[2].counter[counter.count-1].cons_val}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].counter[counter.count-1].usl_name}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].counter[counter.count-1].end_val}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].counter[counter.count-1].beg_val}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[3].counter[counter.count-1].cons_val}</t>
   </si>
 </sst>
 </file>
@@ -954,7 +1011,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -963,7 +1020,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1093,6 +1149,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1129,23 +1189,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1546,1650 +1606,1634 @@
   </sheetPr>
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
     <col min="6" max="7" width="11.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
     <col min="9" max="11" width="13.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="1"/>
-    <col min="14" max="14" width="18" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="76" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="76" t="s">
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
       <c r="U1"/>
-      <c r="V1" s="44"/>
+      <c r="V1" s="43"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="74" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="74"/>
       <c r="F2" s="74"/>
       <c r="G2" s="74"/>
       <c r="H2" s="74"/>
       <c r="I2" s="74"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="77" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="74" t="s">
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="74"/>
       <c r="Q2" s="74"/>
       <c r="R2" s="74"/>
       <c r="S2" s="74"/>
       <c r="T2" s="74"/>
       <c r="U2"/>
-      <c r="V2" s="44"/>
+      <c r="V2" s="43"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="74" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="74"/>
       <c r="F3" s="74"/>
       <c r="G3" s="74"/>
       <c r="H3" s="74"/>
       <c r="I3" s="74"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="74" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="74"/>
       <c r="Q3" s="74"/>
       <c r="R3" s="74"/>
       <c r="S3" s="74"/>
       <c r="T3" s="74"/>
       <c r="U3"/>
-      <c r="V3" s="44"/>
+      <c r="V3" s="43"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="74" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="74"/>
       <c r="F4" s="74"/>
       <c r="G4" s="74"/>
       <c r="H4" s="74"/>
       <c r="I4" s="74"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="74" t="s">
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="74"/>
       <c r="Q4" s="74"/>
       <c r="R4" s="74"/>
       <c r="S4" s="74"/>
       <c r="T4" s="74"/>
       <c r="U4"/>
-      <c r="V4" s="44"/>
+      <c r="V4" s="43"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="75" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="75" t="s">
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
       <c r="U5"/>
-      <c r="V5" s="44"/>
+      <c r="V5" s="43"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="7"/>
+      <c r="P6" s="6"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
       <c r="U6"/>
-      <c r="V6" s="44"/>
+      <c r="V6" s="43"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="73" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="72" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="73" t="s">
+      <c r="I7" s="75"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="72" t="s">
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="72"/>
+      <c r="T7" s="75"/>
       <c r="U7"/>
-      <c r="V7" s="44"/>
+      <c r="V7" s="43"/>
     </row>
     <row r="8" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
       <c r="U8"/>
-      <c r="V8" s="44"/>
+      <c r="V8" s="43"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="51" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="51" t="s">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="50" t="s">
         <v>66</v>
       </c>
       <c r="U9"/>
-      <c r="V9" s="44"/>
+      <c r="V9" s="43"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="52" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6" t="s">
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="52" t="s">
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="51" t="s">
         <v>68</v>
       </c>
       <c r="U10"/>
-      <c r="V10" s="44"/>
+      <c r="V10" s="43"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="52" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6" t="s">
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="52" t="s">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="51" t="s">
         <v>69</v>
       </c>
       <c r="U11"/>
-      <c r="V11" s="44"/>
+      <c r="V11" s="43"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="53" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6" t="s">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="53" t="s">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="52" t="s">
         <v>70</v>
       </c>
       <c r="U12"/>
-      <c r="V12" s="44"/>
+      <c r="V12" s="43"/>
     </row>
     <row r="13" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="F13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="8"/>
+      <c r="O13" s="7"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="9"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="8"/>
       <c r="U13"/>
-      <c r="V13" s="44"/>
+      <c r="V13" s="43"/>
     </row>
     <row r="14" spans="1:22" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
       <c r="U14"/>
-      <c r="V14" s="44"/>
+      <c r="V14" s="43"/>
     </row>
     <row r="15" spans="1:22" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="68" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="68" t="s">
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="69"/>
-      <c r="P15" s="14" t="s">
+      <c r="O15" s="70"/>
+      <c r="P15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="14" t="s">
+      <c r="Q15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="14" t="s">
+      <c r="R15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="S15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T15" s="54" t="s">
+      <c r="T15" s="53" t="s">
         <v>7</v>
       </c>
       <c r="U15"/>
-      <c r="V15" s="44"/>
+      <c r="V15" s="43"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="15" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="54"/>
+      <c r="U16"/>
+      <c r="V16" s="43"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="72"/>
+      <c r="E17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="72"/>
+      <c r="P17" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="S17" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="U17"/>
+      <c r="V17" s="43"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="54"/>
+      <c r="U18"/>
+      <c r="V18" s="43"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="63"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="55"/>
-      <c r="U16"/>
-      <c r="V16" s="44"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="O17" s="71"/>
-      <c r="P17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="R17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="T17" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="U17"/>
-      <c r="V17" s="44"/>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="R19" s="25"/>
+      <c r="S19" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="T19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="U19"/>
+      <c r="V19" s="43"/>
+    </row>
+    <row r="20" spans="1:22" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20"/>
+      <c r="V20" s="43"/>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21"/>
+      <c r="V21" s="43"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22"/>
+      <c r="V22" s="43"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23"/>
+      <c r="V23" s="43"/>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q24" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="R24" s="21"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24"/>
+      <c r="V24" s="43"/>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="55"/>
-      <c r="U18"/>
-      <c r="V18" s="44"/>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="O19" s="62"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R19" s="26"/>
-      <c r="S19" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="T19" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="U19"/>
-      <c r="V19" s="44"/>
-    </row>
-    <row r="20" spans="1:22" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20"/>
-      <c r="V20" s="44"/>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21"/>
-      <c r="V21" s="44"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="P22" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="R22" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22"/>
-      <c r="V22" s="44"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23"/>
-      <c r="V23" s="44"/>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="O24" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="R24" s="22"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24"/>
-      <c r="V24" s="44"/>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
       <c r="U25"/>
-      <c r="V25" s="44"/>
+      <c r="V25" s="43"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
       <c r="U26"/>
-      <c r="V26" s="44"/>
+      <c r="V26" s="43"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="76" t="s">
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4" t="s">
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="76" t="s">
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
       <c r="U27"/>
-      <c r="V27" s="44"/>
+      <c r="V27" s="43"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="74" t="s">
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="74"/>
       <c r="F28" s="74"/>
       <c r="G28" s="74"/>
       <c r="H28" s="74"/>
       <c r="I28" s="74"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="77" t="s">
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="74" t="s">
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="P28" s="74"/>
       <c r="Q28" s="74"/>
       <c r="R28" s="74"/>
       <c r="S28" s="74"/>
       <c r="T28" s="74"/>
       <c r="U28"/>
-      <c r="V28" s="44"/>
+      <c r="V28" s="43"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="74" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="74"/>
       <c r="F29" s="74"/>
       <c r="G29" s="74"/>
       <c r="H29" s="74"/>
       <c r="I29" s="74"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="74" t="s">
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="P29" s="74"/>
       <c r="Q29" s="74"/>
       <c r="R29" s="74"/>
       <c r="S29" s="74"/>
       <c r="T29" s="74"/>
       <c r="U29"/>
-      <c r="V29" s="44"/>
+      <c r="V29" s="43"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="74" t="s">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="74"/>
       <c r="F30" s="74"/>
       <c r="G30" s="74"/>
       <c r="H30" s="74"/>
       <c r="I30" s="74"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="74" t="s">
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="P30" s="74"/>
       <c r="Q30" s="74"/>
       <c r="R30" s="74"/>
       <c r="S30" s="74"/>
       <c r="T30" s="74"/>
       <c r="U30"/>
-      <c r="V30" s="44"/>
+      <c r="V30" s="43"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="75" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="75"/>
-      <c r="T31" s="75"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
       <c r="U31"/>
-      <c r="V31" s="44"/>
+      <c r="V31" s="43"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
       <c r="O32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P32" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="P32" s="6"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
       <c r="U32"/>
-      <c r="V32" s="44"/>
+      <c r="V32" s="43"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="73" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="72" t="s">
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="72"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="73" t="s">
+      <c r="I33" s="75"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="T33" s="75"/>
+      <c r="U33"/>
+      <c r="V33" s="43"/>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34"/>
+      <c r="V34" s="43"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="72" t="s">
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="T33" s="72"/>
-      <c r="U33"/>
-      <c r="V33" s="44"/>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67"/>
-      <c r="U34"/>
-      <c r="V34" s="44"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6" t="s">
+      <c r="U35"/>
+      <c r="V35" s="43"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="51" t="s">
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="U35"/>
-      <c r="V35" s="44"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6" t="s">
+      <c r="U36"/>
+      <c r="V36" s="43"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="52" t="s">
+      <c r="U37"/>
+      <c r="V37" s="43"/>
+    </row>
+    <row r="38" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U36"/>
-      <c r="V36" s="44"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="U37"/>
-      <c r="V37" s="44"/>
-    </row>
-    <row r="38" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="53" t="s">
-        <v>84</v>
-      </c>
       <c r="U38"/>
-      <c r="V38" s="44"/>
+      <c r="V38" s="43"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
+      <c r="F39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
       <c r="N39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O39" s="8"/>
+      <c r="O39" s="7"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="6" t="s">
+      <c r="Q39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="9"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="8"/>
       <c r="U39"/>
-      <c r="V39" s="44"/>
+      <c r="V39" s="43"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
       <c r="U40"/>
-      <c r="V40" s="44"/>
+      <c r="V40" s="43"/>
     </row>
     <row r="41" spans="1:22" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="68" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="14" t="s">
+      <c r="D41" s="70"/>
+      <c r="E41" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I41" s="54" t="s">
+      <c r="I41" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="68" t="s">
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="O41" s="69"/>
-      <c r="P41" s="14" t="s">
+      <c r="O41" s="70"/>
+      <c r="P41" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q41" s="14" t="s">
+      <c r="Q41" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="14" t="s">
+      <c r="R41" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S41" s="14" t="s">
+      <c r="S41" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T41" s="54" t="s">
+      <c r="T41" s="53" t="s">
         <v>7</v>
       </c>
       <c r="U41"/>
-      <c r="V41" s="44"/>
+      <c r="V41" s="43"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="M42" s="16"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="55"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="54"/>
       <c r="U42"/>
-      <c r="V42" s="44"/>
+      <c r="V42" s="43"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="20" t="s">
+      <c r="D43" s="72"/>
+      <c r="E43" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="21" t="s">
+      <c r="H43" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="22" t="s">
+      <c r="I43" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="O43" s="71"/>
-      <c r="P43" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q43" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="R43" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="S43" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="T43" s="22" t="s">
-        <v>14</v>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N43" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="O43" s="72"/>
+      <c r="P43" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q43" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="R43" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="S43" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="T43" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="U43"/>
-      <c r="V43" s="44"/>
+      <c r="V43" s="43"/>
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="23" t="s">
+      <c r="B44" s="15"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="54"/>
+      <c r="U44"/>
+      <c r="V44" s="43"/>
+    </row>
+    <row r="45" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="63"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="O45" s="63"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="R45" s="25"/>
+      <c r="S45" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="T45" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="U45"/>
+      <c r="V45" s="43"/>
+    </row>
+    <row r="46" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46"/>
+      <c r="V46" s="43"/>
+    </row>
+    <row r="47" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="66"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="66"/>
+      <c r="R47" s="67"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47"/>
+      <c r="V47" s="43"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P48" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q48" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48"/>
+      <c r="V48" s="43"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49"/>
+      <c r="V49" s="43"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="21"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="O50" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="P50" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q50" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="R50" s="21"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50"/>
+      <c r="V50" s="43"/>
+    </row>
+    <row r="51" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M44" s="16"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="55"/>
-      <c r="U44"/>
-      <c r="V44" s="44"/>
-    </row>
-    <row r="45" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="O45" s="62"/>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="R45" s="26"/>
-      <c r="S45" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="T45" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="U45"/>
-      <c r="V45" s="44"/>
-    </row>
-    <row r="46" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46"/>
-      <c r="V46" s="44"/>
-    </row>
-    <row r="47" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="O47" s="65"/>
-      <c r="P47" s="65"/>
-      <c r="Q47" s="65"/>
-      <c r="R47" s="66"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47"/>
-      <c r="V47" s="44"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="P48" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q48" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="R48" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48"/>
-      <c r="V48" s="44"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="M49" s="15"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49"/>
-      <c r="V49" s="44"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="O50" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="P50" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q50" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="R50" s="22"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50"/>
-      <c r="V50" s="44"/>
-    </row>
-    <row r="51" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M51" s="15"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
       <c r="U51"/>
-      <c r="V51" s="44"/>
+      <c r="V51" s="43"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52"/>
@@ -3215,7 +3259,15 @@
       <c r="U52"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="60">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="N43:O43"/>
     <mergeCell ref="N45:P45"/>
     <mergeCell ref="N47:R47"/>
@@ -3224,49 +3276,45 @@
     <mergeCell ref="S33:T33"/>
     <mergeCell ref="O34:T34"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:T28"/>
-    <mergeCell ref="O29:T29"/>
-    <mergeCell ref="O30:T30"/>
     <mergeCell ref="O31:T31"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N19:P19"/>
     <mergeCell ref="N21:R21"/>
-    <mergeCell ref="O27:T27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="O5:T5"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="O8:T8"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:I28"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:I28"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="D33:G33"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
     <mergeCell ref="D31:I31"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="D34:I34"/>

--- a/app/Отчеты/Nadezhda.xlsx
+++ b/app/Отчеты/Nadezhda.xlsx
@@ -1153,6 +1153,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1174,6 +1189,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1182,31 +1203,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -1606,7 +1606,7 @@
   </sheetPr>
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -1618,76 +1618,79 @@
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
     <col min="6" max="7" width="11.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
     <col min="9" max="11" width="13.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="1"/>
     <col min="14" max="14" width="26.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.85546875" style="1"/>
+    <col min="16" max="16" width="13.140625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="10.85546875" style="1"/>
+    <col min="19" max="19" width="14" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="78" t="s">
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
       <c r="U1"/>
       <c r="V1" s="43"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="74" t="s">
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
       <c r="U2"/>
       <c r="V2" s="43"/>
     </row>
@@ -1696,26 +1699,26 @@
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
       <c r="D3" s="61"/>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
       <c r="L3" s="60"/>
       <c r="M3" s="60"/>
       <c r="N3" s="60"/>
       <c r="O3" s="61"/>
-      <c r="P3" s="74" t="s">
+      <c r="P3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
       <c r="U3"/>
       <c r="V3" s="43"/>
     </row>
@@ -1724,26 +1727,26 @@
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="61"/>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
       <c r="L4" s="60"/>
       <c r="M4" s="60"/>
       <c r="N4" s="60"/>
       <c r="O4" s="61"/>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
       <c r="U4"/>
       <c r="V4" s="43"/>
     </row>
@@ -1751,27 +1754,27 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="77" t="s">
+      <c r="O5" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
       <c r="U5"/>
       <c r="V5" s="43"/>
     </row>
@@ -1785,8 +1788,8 @@
       <c r="E6" s="6"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
       <c r="L6" s="5"/>
@@ -1798,8 +1801,8 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
       <c r="U6"/>
       <c r="V6" s="43"/>
     </row>
@@ -1807,31 +1810,31 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="75" t="s">
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="75"/>
+      <c r="I7" s="73"/>
       <c r="J7" s="49"/>
       <c r="K7" s="49"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="76" t="s">
+      <c r="O7" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="75" t="s">
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="75"/>
+      <c r="T7" s="73"/>
       <c r="U7"/>
       <c r="V7" s="43"/>
     </row>
@@ -1839,23 +1842,23 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
       <c r="J8" s="45"/>
       <c r="K8" s="45"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
       <c r="U8"/>
       <c r="V8" s="43"/>
     </row>
@@ -2046,10 +2049,10 @@
     <row r="15" spans="1:22" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="70"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="13" t="s">
         <v>3</v>
       </c>
@@ -2069,10 +2072,10 @@
       <c r="K15" s="58"/>
       <c r="L15" s="11"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="69" t="s">
+      <c r="N15" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="70"/>
+      <c r="O15" s="77"/>
       <c r="P15" s="13" t="s">
         <v>3</v>
       </c>
@@ -2122,10 +2125,10 @@
       <c r="B17" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="72"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="19" t="s">
         <v>10</v>
       </c>
@@ -2147,10 +2150,10 @@
       <c r="M17" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="N17" s="71" t="s">
+      <c r="N17" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="O17" s="72"/>
+      <c r="O17" s="66"/>
       <c r="P17" s="19" t="s">
         <v>89</v>
       </c>
@@ -2198,11 +2201,11 @@
     <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="24" t="s">
         <v>43</v>
       </c>
@@ -2217,11 +2220,11 @@
       <c r="K19" s="59"/>
       <c r="L19" s="14"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="62" t="s">
+      <c r="N19" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="O19" s="63"/>
-      <c r="P19" s="64"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="69"/>
       <c r="Q19" s="24" t="s">
         <v>71</v>
       </c>
@@ -2262,26 +2265,26 @@
     <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="65" t="s">
+      <c r="N21" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="67"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="72"/>
       <c r="S21" s="28"/>
       <c r="T21" s="28"/>
       <c r="U21"/>
@@ -2444,66 +2447,66 @@
       <c r="V26" s="43"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="78" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="46"/>
       <c r="K27" s="46"/>
-      <c r="L27" s="73" t="s">
+      <c r="L27" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="78" t="s">
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
       <c r="U27"/>
       <c r="V27" s="43"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74" t="s">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
       <c r="J28" s="44"/>
       <c r="K28" s="44"/>
-      <c r="L28" s="73" t="s">
+      <c r="L28" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="74" t="s">
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="74"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
       <c r="U28"/>
       <c r="V28" s="43"/>
     </row>
@@ -2512,26 +2515,26 @@
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
       <c r="L29" s="60"/>
       <c r="M29" s="60"/>
       <c r="N29" s="60"/>
       <c r="O29" s="61"/>
-      <c r="P29" s="74" t="s">
+      <c r="P29" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="74"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
       <c r="U29"/>
       <c r="V29" s="43"/>
     </row>
@@ -2540,26 +2543,26 @@
       <c r="B30" s="60"/>
       <c r="C30" s="60"/>
       <c r="D30" s="61"/>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
       <c r="L30" s="60"/>
       <c r="M30" s="60"/>
       <c r="N30" s="60"/>
       <c r="O30" s="61"/>
-      <c r="P30" s="74" t="s">
+      <c r="P30" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="74"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
       <c r="U30"/>
       <c r="V30" s="43"/>
     </row>
@@ -2567,27 +2570,27 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
       <c r="J31" s="47"/>
       <c r="K31" s="47"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="77" t="s">
+      <c r="O31" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
       <c r="U31"/>
       <c r="V31" s="43"/>
     </row>
@@ -2601,8 +2604,8 @@
       <c r="E32" s="6"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
       <c r="J32" s="49"/>
       <c r="K32" s="49"/>
       <c r="L32" s="5"/>
@@ -2614,8 +2617,8 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="75"/>
-      <c r="T32" s="75"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
       <c r="U32"/>
       <c r="V32" s="43"/>
     </row>
@@ -2623,31 +2626,31 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="76" t="s">
+      <c r="D33" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="75" t="s">
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="75"/>
+      <c r="I33" s="73"/>
       <c r="J33" s="49"/>
       <c r="K33" s="49"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="76" t="s">
+      <c r="O33" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="75" t="s">
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="T33" s="75"/>
+      <c r="T33" s="73"/>
       <c r="U33"/>
       <c r="V33" s="43"/>
     </row>
@@ -2655,23 +2658,23 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
       <c r="J34" s="45"/>
       <c r="K34" s="45"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="75"/>
       <c r="U34"/>
       <c r="V34" s="43"/>
     </row>
@@ -2862,10 +2865,10 @@
     <row r="41" spans="1:22" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="69" t="s">
+      <c r="C41" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="70"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="13" t="s">
         <v>3</v>
       </c>
@@ -2885,10 +2888,10 @@
       <c r="K41" s="58"/>
       <c r="L41" s="11"/>
       <c r="M41" s="12"/>
-      <c r="N41" s="69" t="s">
+      <c r="N41" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="O41" s="70"/>
+      <c r="O41" s="77"/>
       <c r="P41" s="13" t="s">
         <v>3</v>
       </c>
@@ -2938,10 +2941,10 @@
       <c r="B43" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="72"/>
+      <c r="D43" s="66"/>
       <c r="E43" s="19" t="s">
         <v>10</v>
       </c>
@@ -2963,10 +2966,10 @@
       <c r="M43" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="N43" s="71" t="s">
+      <c r="N43" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="O43" s="72"/>
+      <c r="O43" s="66"/>
       <c r="P43" s="19" t="s">
         <v>96</v>
       </c>
@@ -3014,11 +3017,11 @@
     <row r="45" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="23"/>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="63"/>
-      <c r="E45" s="64"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="69"/>
       <c r="F45" s="24" t="s">
         <v>58</v>
       </c>
@@ -3033,11 +3036,11 @@
       <c r="K45" s="59"/>
       <c r="L45" s="14"/>
       <c r="M45" s="23"/>
-      <c r="N45" s="62" t="s">
+      <c r="N45" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="O45" s="63"/>
-      <c r="P45" s="64"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="69"/>
       <c r="Q45" s="24" t="s">
         <v>83</v>
       </c>
@@ -3078,26 +3081,26 @@
     <row r="47" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="65" t="s">
+      <c r="N47" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="66"/>
-      <c r="P47" s="66"/>
-      <c r="Q47" s="66"/>
-      <c r="R47" s="67"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="72"/>
       <c r="S47" s="28"/>
       <c r="T47" s="28"/>
       <c r="U47"/>
@@ -3260,33 +3263,25 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N47:R47"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="O34:T34"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="O31:T31"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:I27"/>
     <mergeCell ref="P3:T3"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="D8:I8"/>
@@ -3301,25 +3296,33 @@
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="O8:T8"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="O31:T31"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N47:R47"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="O34:T34"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Nadezhda.xlsx
+++ b/app/Отчеты/Nadezhda.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Начислено</t>
-  </si>
-  <si>
-    <t>${sum1.count}</t>
   </si>
   <si>
     <t>${sum1.usl_name}</t>
@@ -233,21 +230,6 @@
     <t>${Flats.ar[1].chars_str}</t>
   </si>
   <si>
-    <r>
-      <t>Проживает:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> ${Flats.ar[1].reg_count}  чел.</t>
-    </r>
-  </si>
-  <si>
     <t>Начислено за ${Flats.ar[1].date} г. :</t>
   </si>
   <si>
@@ -266,50 +248,10 @@
     <t>${Flats.ar[1].saldo.full_end}</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${Flats.ar[1].sums}" var ="sum1"&gt;</t>
-  </si>
-  <si>
     <t>${Flats.ar[1].saldo.calc}</t>
   </si>
   <si>
     <t>${Flats.ar[1].saldo.recalc}</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${Flats.ar[1].counter}" var ="counter"&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t>Адрес:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> ${Group.grp_address}, ${Group.grp_name},  кв.${Flats.ar[2].lc_flatnumber} </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Плательщик:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> ${Flats.ar[2].lc_regto} </t>
-    </r>
-  </si>
-  <si>
-    <t>${Flats.ar[2].chars_str}</t>
   </si>
   <si>
     <r>
@@ -327,173 +269,43 @@
     </r>
   </si>
   <si>
-    <t>Начислено за ${Flats.ar[2].date} г. :</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].saldo.full_calc}</t>
-  </si>
-  <si>
-    <t>Долг, переплата(-) на ${Flats.ar[2].day} г. :</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].saldo.debt}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].saldo.penalties_cur}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].saldo.full_end}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].saldo.calc}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].saldo.recalc}</t>
-  </si>
-  <si>
-    <r>
-      <t>Адрес:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> ${Group.grp_address}, ${Group.grp_name},  кв.${Flats.ar[3].lc_flatnumber} </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Плательщик:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> ${Flats.ar[3].lc_regto} </t>
-    </r>
-  </si>
-  <si>
-    <t>${Flats.ar[3].chars_str}</t>
-  </si>
-  <si>
-    <r>
-      <t>Проживает:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> ${Flats.ar[3].reg_count}  чел.</t>
-    </r>
-  </si>
-  <si>
-    <t>Начислено за ${Flats.ar[3].date} г. :</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].saldo.full_calc}</t>
-  </si>
-  <si>
-    <t>Долг, переплата(-) на ${Flats.ar[3].day} г. :</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].saldo.debt}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].saldo.penalties_cur}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].saldo.full_end}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].saldo.calc}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].saldo.recalc}</t>
-  </si>
-  <si>
     <t>Плательщик: _____________________________</t>
   </si>
   <si>
     <t>${sum1.count-1}</t>
   </si>
   <si>
-    <t>${Flats.ar[2].sums[sum1.count-1].count}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].sums[sum1.count-1].usl_name}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].sums[sum1.count-1].rate}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].sums[sum1.count-1].calc}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].sums[sum1.count-1].benefit}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].sums[sum1.count-1].recalc}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].sums[sum1.count-1].full_calc}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].sums[sum1.count-1].count}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].sums[sum1.count-1].usl_name}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].sums[sum1.count-1].rate}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].sums[sum1.count-1].calc}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].sums[sum1.count-1].benefit}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].sums[sum1.count-1].recalc}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].sums[sum1.count-1].full_calc}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].counter[counter.count-1].usl_name}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].counter[counter.count-1].end_val}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].counter[counter.count-1].beg_val}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[2].counter[counter.count-1].cons_val}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].counter[counter.count-1].usl_name}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].counter[counter.count-1].end_val}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].counter[counter.count-1].beg_val}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[3].counter[counter.count-1].cons_val}</t>
+    <t>${Flats.ar[1].counter[counter.count-1].end_val}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].counter[counter.count-1].usl_name}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].counter[counter.count-1].beg_val}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].counter[counter.count-1].cons_val}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].sums[sum1.count-1].count-1}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].sums[sum1.count-1].usl_name}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].sums[sum1.count-1].rate}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].sums[sum1.count-1].calc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].sums[sum1.count-1].benefit}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].sums[sum1.count-1].recalc}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].sums[sum1.count-1].full_calc}</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +823,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1140,10 +952,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="54" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="54" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1153,28 +961,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1189,24 +994,27 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -1606,8 +1414,8 @@
   </sheetPr>
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,66 +1439,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
       <c r="U1"/>
       <c r="V1" s="43"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="A2" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
+      <c r="L2" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
       <c r="U2"/>
       <c r="V2" s="43"/>
     </row>
@@ -1698,27 +1504,26 @@
       <c r="A3" s="48"/>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
       <c r="U3"/>
       <c r="V3" s="43"/>
     </row>
@@ -1726,27 +1531,26 @@
       <c r="A4" s="48"/>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
       <c r="U4"/>
       <c r="V4" s="43"/>
     </row>
@@ -1754,27 +1558,26 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
+      <c r="D5" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
+      <c r="O5" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
       <c r="U5"/>
       <c r="V5" s="43"/>
     </row>
@@ -1783,26 +1586,25 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
       <c r="U6"/>
       <c r="V6" s="43"/>
     </row>
@@ -1810,31 +1612,30 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="73"/>
+      <c r="D7" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="72"/>
       <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="T7" s="73"/>
+      <c r="O7" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7" s="72"/>
       <c r="U7"/>
       <c r="V7" s="43"/>
     </row>
@@ -1842,23 +1643,22 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
       <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
       <c r="U8"/>
       <c r="V8" s="43"/>
     </row>
@@ -1867,29 +1667,28 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="7"/>
       <c r="I9" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
+        <v>38</v>
+      </c>
+      <c r="J9" s="55"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="7"/>
       <c r="T9" s="50" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="U9"/>
       <c r="V9" s="43"/>
@@ -1899,29 +1698,28 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="7"/>
       <c r="I10" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
+        <v>45</v>
+      </c>
+      <c r="J10" s="55"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="7"/>
       <c r="T10" s="51" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="U10"/>
       <c r="V10" s="43"/>
@@ -1931,29 +1729,28 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="7"/>
       <c r="I11" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
+        <v>39</v>
+      </c>
+      <c r="J11" s="55"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="7"/>
       <c r="T11" s="51" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="U11"/>
       <c r="V11" s="43"/>
@@ -1963,29 +1760,28 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="7"/>
       <c r="I12" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="7"/>
       <c r="T12" s="52" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="U12"/>
       <c r="V12" s="43"/>
@@ -1994,27 +1790,26 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="3"/>
       <c r="F13" s="5" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
@@ -2033,7 +1828,6 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -2046,13 +1840,13 @@
       <c r="U14"/>
       <c r="V14" s="43"/>
     </row>
-    <row r="15" spans="1:22" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="77"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="13" t="s">
         <v>3</v>
       </c>
@@ -2068,14 +1862,13 @@
       <c r="I15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
+      <c r="J15" s="56"/>
       <c r="L15" s="11"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="76" t="s">
+      <c r="N15" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="77"/>
+      <c r="O15" s="64"/>
       <c r="P15" s="13" t="s">
         <v>3</v>
       </c>
@@ -2096,7 +1889,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="14"/>
@@ -2107,7 +1900,6 @@
       <c r="H16" s="11"/>
       <c r="I16" s="54"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
       <c r="L16" s="14"/>
       <c r="M16" s="15"/>
       <c r="N16" s="14"/>
@@ -2123,51 +1915,50 @@
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="18" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="66"/>
       <c r="E17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="G17" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="H17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="I17" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>14</v>
-      </c>
       <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
       <c r="L17" s="17"/>
       <c r="M17" s="18" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="N17" s="65" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="O17" s="66"/>
       <c r="P17" s="19" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="R17" s="20" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="S17" s="20" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="U17"/>
       <c r="V17" s="43"/>
@@ -2185,7 +1976,6 @@
       <c r="H18" s="11"/>
       <c r="I18" s="54"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
       <c r="L18" s="22"/>
       <c r="M18" s="15"/>
       <c r="N18" s="14"/>
@@ -2201,39 +1991,38 @@
     <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
+      <c r="C19" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
+        <v>38</v>
+      </c>
+      <c r="J19" s="57"/>
       <c r="L19" s="14"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="O19" s="68"/>
-      <c r="P19" s="69"/>
+      <c r="N19" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="61"/>
+      <c r="P19" s="62"/>
       <c r="Q19" s="24" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="R19" s="25"/>
       <c r="S19" s="26" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="U19"/>
       <c r="V19" s="43"/>
@@ -2249,7 +2038,6 @@
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="27"/>
@@ -2265,26 +2053,25 @@
     <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
+      <c r="C21" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="72"/>
+      <c r="N21" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="69"/>
       <c r="S21" s="28"/>
       <c r="T21" s="28"/>
       <c r="U21"/>
@@ -2295,35 +2082,34 @@
       <c r="B22" s="14"/>
       <c r="C22" s="29"/>
       <c r="D22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="F22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="31" t="s">
-        <v>24</v>
-      </c>
       <c r="G22" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="29"/>
       <c r="O22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="P22" s="30" t="s">
+      <c r="Q22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="Q22" s="31" t="s">
-        <v>24</v>
-      </c>
       <c r="R22" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -2332,7 +2118,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="33"/>
@@ -2343,7 +2129,6 @@
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="33"/>
@@ -2360,35 +2145,34 @@
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="E24" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="F24" s="38" t="s">
         <v>18</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>19</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="36" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="O24" s="37" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P24" s="37" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="Q24" s="38" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="R24" s="21"/>
       <c r="S24" s="28"/>
@@ -2409,7 +2193,6 @@
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="39"/>
@@ -2423,822 +2206,20 @@
       <c r="V25" s="43"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
       <c r="U26"/>
-      <c r="V26" s="43"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27"/>
-      <c r="V27" s="43"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28"/>
-      <c r="V28" s="43"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29"/>
-      <c r="V29" s="43"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
-      <c r="U30"/>
-      <c r="V30" s="43"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-      <c r="U31"/>
-      <c r="V31" s="43"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32"/>
-      <c r="V32" s="43"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="73"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="T33" s="73"/>
-      <c r="U33"/>
-      <c r="V33" s="43"/>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="75"/>
-      <c r="U34"/>
-      <c r="V34" s="43"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="U35"/>
-      <c r="V35" s="43"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="U36"/>
-      <c r="V36" s="43"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="U37"/>
-      <c r="V37" s="43"/>
-    </row>
-    <row r="38" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="U38"/>
-      <c r="V38" s="43"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O39" s="7"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="8"/>
-      <c r="U39"/>
-      <c r="V39" s="43"/>
-    </row>
-    <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40"/>
-      <c r="V40" s="43"/>
-    </row>
-    <row r="41" spans="1:22" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="O41" s="77"/>
-      <c r="P41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T41" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="U41"/>
-      <c r="V41" s="43"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="54"/>
-      <c r="U42"/>
-      <c r="V42" s="43"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="66"/>
-      <c r="E43" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="N43" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="O43" s="66"/>
-      <c r="P43" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q43" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="R43" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="S43" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="T43" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="U43"/>
-      <c r="V43" s="43"/>
-    </row>
-    <row r="44" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="54"/>
-      <c r="U44"/>
-      <c r="V44" s="43"/>
-    </row>
-    <row r="45" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="68"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="I45" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="O45" s="68"/>
-      <c r="P45" s="69"/>
-      <c r="Q45" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="R45" s="25"/>
-      <c r="S45" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="T45" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="U45"/>
-      <c r="V45" s="43"/>
-    </row>
-    <row r="46" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46"/>
-      <c r="V46" s="43"/>
-    </row>
-    <row r="47" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47"/>
-      <c r="V47" s="43"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P48" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q48" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="R48" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48"/>
-      <c r="V48" s="43"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49"/>
-      <c r="V49" s="43"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="21"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="O50" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="P50" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q50" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="R50" s="21"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50"/>
-      <c r="V50" s="43"/>
-    </row>
-    <row r="51" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51"/>
-      <c r="V51" s="43"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -3248,73 +2229,20 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:I27"/>
+  <mergeCells count="30">
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N21:R21"/>
     <mergeCell ref="P3:T3"/>
     <mergeCell ref="P4:T4"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="O8:T8"/>
     <mergeCell ref="O5:T5"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="S7:T7"/>
-    <mergeCell ref="O8:T8"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="O31:T31"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N47:R47"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="O34:T34"/>
-    <mergeCell ref="N41:O41"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L1:O1"/>
@@ -3323,13 +2251,21 @@
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D8:I8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="12" max="1048575" man="1"/>
-  </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/app/Отчеты/Nadezhda.xlsx
+++ b/app/Отчеты/Nadezhda.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
@@ -315,6 +315,24 @@
   </si>
   <si>
     <t>Кассир: __________________</t>
+  </si>
+  <si>
+    <t>Платеж 1%:</t>
+  </si>
+  <si>
+    <t>Платеж 1,5%:</t>
+  </si>
+  <si>
+    <t>${Flats.ar[0].saldo.full_1}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[0].saldo.full_1_5}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].saldo.full_1}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].saldo.full_1_5}</t>
   </si>
 </sst>
 </file>
@@ -895,7 +913,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -927,9 +945,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="54" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="54" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="23" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="24" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="25" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1071,22 +1086,31 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1101,9 +1125,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1114,32 +1135,38 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="24" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="25" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="23" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="24" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -1537,10 +1564,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="T18" sqref="S18:T18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,7 +1579,8 @@
     <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
     <col min="6" max="7" width="11.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="1"/>
     <col min="14" max="14" width="26.85546875" style="1" customWidth="1"/>
@@ -1560,102 +1588,103 @@
     <col min="16" max="16" width="13.140625" style="1" customWidth="1"/>
     <col min="17" max="18" width="10.85546875" style="1"/>
     <col min="19" max="19" width="14" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.85546875" style="1"/>
+    <col min="20" max="20" width="16.42578125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="48" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:22" s="45" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="L1" s="79" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="L1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-    </row>
-    <row r="2" spans="1:22" s="48" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+    </row>
+    <row r="2" spans="1:22" s="45" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="L2" s="79" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="L2" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-    </row>
-    <row r="3" spans="1:22" s="48" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="80" t="s">
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+    </row>
+    <row r="3" spans="1:22" s="45" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="51"/>
-      <c r="L3" s="80" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="48"/>
+      <c r="L3" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="50"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="47"/>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
       <c r="J4" s="9"/>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
       <c r="U4" s="7"/>
       <c r="V4" s="8"/>
     </row>
@@ -1663,26 +1692,26 @@
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
       <c r="J5" s="9"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="78" t="s">
+      <c r="O5" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
       <c r="U5" s="7"/>
       <c r="V5" s="8"/>
     </row>
@@ -1690,53 +1719,53 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
       <c r="J6" s="9"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="78" t="s">
+      <c r="O6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
       <c r="U6" s="7"/>
       <c r="V6" s="8"/>
     </row>
     <row r="7" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="88" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="19"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="88" t="s">
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="16"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
       <c r="U7" s="7"/>
       <c r="V7" s="8"/>
     </row>
@@ -1750,9 +1779,9 @@
       <c r="E8" s="12"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="20"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="17"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
@@ -1762,8 +1791,8 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
       <c r="U8" s="7"/>
       <c r="V8" s="8"/>
     </row>
@@ -1771,30 +1800,30 @@
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="89" t="s">
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="89"/>
-      <c r="J9" s="20"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="17"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
-      <c r="O9" s="90" t="s">
+      <c r="O9" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="89" t="s">
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="89"/>
+      <c r="T9" s="88"/>
       <c r="U9" s="7"/>
       <c r="V9" s="8"/>
     </row>
@@ -1802,22 +1831,22 @@
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="21"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="18"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
       <c r="U10" s="7"/>
       <c r="V10" s="8"/>
     </row>
@@ -1832,10 +1861,10 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="19"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -1846,7 +1875,7 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="14"/>
-      <c r="T11" s="15" t="s">
+      <c r="T11" s="99" t="s">
         <v>60</v>
       </c>
       <c r="U11" s="7"/>
@@ -1863,10 +1892,10 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="19"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -1877,7 +1906,7 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="14"/>
-      <c r="T12" s="16" t="s">
+      <c r="T12" s="97" t="s">
         <v>63</v>
       </c>
       <c r="U12" s="7"/>
@@ -1894,10 +1923,10 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="19"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -1908,7 +1937,7 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="14"/>
-      <c r="T13" s="16" t="s">
+      <c r="T13" s="97" t="s">
         <v>42</v>
       </c>
       <c r="U13" s="7"/>
@@ -1925,10 +1954,10 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="19"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -1939,13 +1968,13 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="S14" s="14"/>
-      <c r="T14" s="16" t="s">
+      <c r="T14" s="97" t="s">
         <v>44</v>
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1956,10 +1985,10 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="23"/>
+      <c r="J15" s="20"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
@@ -1970,476 +1999,520 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="14"/>
-      <c r="T15" s="17" t="s">
+      <c r="T15" s="100" t="s">
         <v>45</v>
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:22" s="48" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45" t="s">
+    <row r="16" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="U16" s="7"/>
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="U17" s="7"/>
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18" spans="1:22" s="45" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="44" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="45" t="s">
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="44" t="s">
+      <c r="O18" s="43"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="50"/>
-    </row>
-    <row r="17" spans="1:22" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="1:22" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="91" t="s">
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="47"/>
+    </row>
+    <row r="19" spans="1:22" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="1:22" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="92"/>
-      <c r="E18" s="26" t="s">
+      <c r="D20" s="81"/>
+      <c r="E20" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G20" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="98" t="s">
+      <c r="H20" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="99" t="s">
+      <c r="I20" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="91" t="s">
+      <c r="J20" s="24"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="O18" s="92"/>
-      <c r="P18" s="26" t="s">
+      <c r="O20" s="81"/>
+      <c r="P20" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="26" t="s">
+      <c r="Q20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="26" t="s">
+      <c r="R20" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="S18" s="98" t="s">
+      <c r="S20" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="T18" s="99" t="s">
+      <c r="T20" s="76" t="s">
         <v>7</v>
-      </c>
-      <c r="U18" s="7"/>
-      <c r="V18" s="8"/>
-    </row>
-    <row r="19" spans="1:22" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="24"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="8"/>
-    </row>
-    <row r="20" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="37"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="O20" s="94"/>
-      <c r="P20" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="R20" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="S20" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="T20" s="36" t="s">
-        <v>59</v>
       </c>
       <c r="U20" s="7"/>
       <c r="V20" s="8"/>
     </row>
-    <row r="21" spans="1:22" s="6" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="24"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="31"/>
+    <row r="21" spans="1:22" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="21"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="28"/>
       <c r="U21" s="7"/>
       <c r="V21" s="8"/>
     </row>
-    <row r="22" spans="1:22" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="57"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" s="82"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="R22" s="60"/>
-      <c r="S22" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="T22" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="U22" s="62"/>
-      <c r="V22" s="63"/>
-    </row>
-    <row r="23" spans="1:22" s="6" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
+    <row r="22" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="83"/>
+      <c r="E22" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="34"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="83"/>
+      <c r="P22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="T22" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="U22" s="7"/>
+      <c r="V22" s="8"/>
+    </row>
+    <row r="23" spans="1:22" s="6" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="21"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="28"/>
       <c r="U23" s="7"/>
       <c r="V23" s="8"/>
     </row>
-    <row r="24" spans="1:22" s="70" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="84" t="s">
+    <row r="24" spans="1:22" s="55" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="54"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="92"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="R24" s="57"/>
+      <c r="S24" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="T24" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="U24" s="59"/>
+      <c r="V24" s="60"/>
+    </row>
+    <row r="25" spans="1:22" s="6" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="8"/>
+    </row>
+    <row r="26" spans="1:22" s="67" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="84" t="s">
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="64"/>
-    </row>
-    <row r="25" spans="1:22" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66" t="s">
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="61"/>
+    </row>
+    <row r="27" spans="1:22" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E27" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F27" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="68" t="s">
+      <c r="G27" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="66" t="s">
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="P25" s="66" t="s">
+      <c r="P27" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="Q25" s="67" t="s">
+      <c r="Q27" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="R25" s="68" t="s">
+      <c r="R27" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="64"/>
-    </row>
-    <row r="26" spans="1:22" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="61"/>
+    </row>
+    <row r="28" spans="1:22" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="64"/>
-    </row>
-    <row r="27" spans="1:22" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="76" t="s">
+      <c r="B28" s="61"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="61"/>
+    </row>
+    <row r="29" spans="1:22" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D29" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="77" t="s">
+      <c r="E29" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="77" t="s">
+      <c r="F29" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="75"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="76" t="s">
+      <c r="G29" s="72"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="O27" s="77" t="s">
+      <c r="O29" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="P27" s="77" t="s">
+      <c r="P29" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="Q27" s="77" t="s">
+      <c r="Q29" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="R27" s="75"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="64"/>
-    </row>
-    <row r="28" spans="1:22" s="6" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
+      <c r="R29" s="72"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="61"/>
+    </row>
+    <row r="30" spans="1:22" s="6" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="8"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="U29"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="8"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="U31"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N20:O20"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="L1:T1"/>
@@ -2452,6 +2525,24 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="D4:I4"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Nadezhda.xlsx
+++ b/app/Отчеты/Nadezhda.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypusreports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
@@ -333,6 +328,9 @@
   </si>
   <si>
     <t>${Flats.ar[1].saldo.full_1_5}</t>
+  </si>
+  <si>
+    <t>ИНН ${Group.group_inn}</t>
   </si>
 </sst>
 </file>
@@ -913,7 +911,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1092,25 +1090,37 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="24" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="25" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="23" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="24" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1125,6 +1135,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1135,38 +1148,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="24" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="25" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="23" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="24" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -1564,10 +1565,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,98 +1594,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="45" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="L1" s="95" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="L1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
     </row>
     <row r="2" spans="1:22" s="45" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="L2" s="95" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="L2" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
     </row>
     <row r="3" spans="1:22" s="45" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="48"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
       <c r="U3" s="46"/>
       <c r="V3" s="47"/>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
       <c r="J4" s="9"/>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
       <c r="U4" s="7"/>
       <c r="V4" s="8"/>
     </row>
@@ -1692,26 +1693,26 @@
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
       <c r="J5" s="9"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="94" t="s">
+      <c r="O5" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
       <c r="U5" s="7"/>
       <c r="V5" s="8"/>
     </row>
@@ -1719,80 +1720,80 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
       <c r="J6" s="9"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="94" t="s">
+      <c r="O6" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
       <c r="U6" s="7"/>
       <c r="V6" s="8"/>
     </row>
-    <row r="7" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="16"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
+    <row r="7" spans="1:22" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="77"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
       <c r="U7" s="7"/>
       <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="17"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="16"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
       <c r="U8" s="7"/>
       <c r="V8" s="8"/>
     </row>
@@ -1800,84 +1801,80 @@
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="88"/>
+      <c r="D9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
       <c r="J9" s="17"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
-      <c r="O9" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="T9" s="88"/>
+      <c r="O9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
       <c r="U9" s="7"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="18"/>
+      <c r="D10" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="93"/>
+      <c r="J10" s="17"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
+      <c r="O10" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="T10" s="93"/>
       <c r="U10" s="7"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="19"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="18"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
-      <c r="O11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="99" t="s">
-        <v>60</v>
-      </c>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
       <c r="U11" s="7"/>
       <c r="V11" s="8"/>
     </row>
@@ -1886,28 +1883,28 @@
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="97" t="s">
-        <v>62</v>
+      <c r="I12" s="80" t="s">
+        <v>61</v>
       </c>
       <c r="J12" s="19"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="14"/>
-      <c r="T12" s="97" t="s">
-        <v>63</v>
+      <c r="T12" s="80" t="s">
+        <v>60</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="8"/>
@@ -1917,28 +1914,28 @@
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="97" t="s">
-        <v>33</v>
+      <c r="I13" s="78" t="s">
+        <v>62</v>
       </c>
       <c r="J13" s="19"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="14"/>
-      <c r="T13" s="97" t="s">
-        <v>42</v>
+      <c r="T13" s="78" t="s">
+        <v>63</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8"/>
@@ -1948,28 +1945,28 @@
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="97" t="s">
-        <v>34</v>
+      <c r="I14" s="78" t="s">
+        <v>33</v>
       </c>
       <c r="J14" s="19"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="S14" s="14"/>
-      <c r="T14" s="97" t="s">
-        <v>44</v>
+      <c r="T14" s="78" t="s">
+        <v>42</v>
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="8"/>
@@ -1979,28 +1976,28 @@
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="20"/>
+      <c r="I15" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="19"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="14"/>
-      <c r="T15" s="100" t="s">
-        <v>45</v>
+      <c r="T15" s="78" t="s">
+        <v>44</v>
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="8"/>
@@ -2010,509 +2007,560 @@
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="97" t="s">
-        <v>76</v>
+      <c r="I16" s="81" t="s">
+        <v>35</v>
       </c>
       <c r="J16" s="20"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="S16" s="14"/>
-      <c r="T16" s="97" t="s">
-        <v>78</v>
+      <c r="T16" s="81" t="s">
+        <v>45</v>
       </c>
       <c r="U16" s="7"/>
       <c r="V16" s="8"/>
     </row>
-    <row r="17" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="98" t="s">
-        <v>77</v>
+      <c r="I17" s="78" t="s">
+        <v>76</v>
       </c>
       <c r="J17" s="20"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="14"/>
-      <c r="T17" s="98" t="s">
-        <v>79</v>
+      <c r="T17" s="78" t="s">
+        <v>78</v>
       </c>
       <c r="U17" s="7"/>
       <c r="V17" s="8"/>
     </row>
-    <row r="18" spans="1:22" s="45" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42" t="s">
+    <row r="18" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="U18" s="7"/>
+      <c r="V18" s="8"/>
+    </row>
+    <row r="19" spans="1:22" s="45" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="41" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42" t="s">
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="43"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="41" t="s">
+      <c r="O19" s="43"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="47"/>
-    </row>
-    <row r="19" spans="1:22" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19"/>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="1:22" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="80" t="s">
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="47"/>
+    </row>
+    <row r="20" spans="1:22" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="1:22" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="23" t="s">
+      <c r="D21" s="96"/>
+      <c r="E21" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F21" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G21" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="75" t="s">
+      <c r="H21" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="76" t="s">
+      <c r="I21" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="80" t="s">
+      <c r="J21" s="24"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="81"/>
-      <c r="P20" s="23" t="s">
+      <c r="O21" s="96"/>
+      <c r="P21" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="23" t="s">
+      <c r="Q21" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="23" t="s">
+      <c r="R21" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="S20" s="75" t="s">
+      <c r="S21" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="T20" s="76" t="s">
+      <c r="T21" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="7"/>
-      <c r="V20" s="8"/>
-    </row>
-    <row r="21" spans="1:22" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="21"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="28"/>
       <c r="U21" s="7"/>
       <c r="V21" s="8"/>
     </row>
-    <row r="22" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="83"/>
-      <c r="E22" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="34"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="O22" s="83"/>
-      <c r="P22" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q22" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="R22" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="S22" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="T22" s="33" t="s">
-        <v>59</v>
-      </c>
+    <row r="22" spans="1:22" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="21"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="28"/>
       <c r="U22" s="7"/>
       <c r="V22" s="8"/>
     </row>
-    <row r="23" spans="1:22" s="6" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="21"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="28"/>
+    <row r="23" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="98"/>
+      <c r="E23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="98"/>
+      <c r="P23" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="T23" s="33" t="s">
+        <v>59</v>
+      </c>
       <c r="U23" s="7"/>
       <c r="V23" s="8"/>
     </row>
-    <row r="24" spans="1:22" s="55" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="77" t="s">
+    <row r="24" spans="1:22" s="6" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="21"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="8"/>
+    </row>
+    <row r="25" spans="1:22" s="55" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="51" t="s">
+      <c r="D25" s="100"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53" t="s">
+      <c r="G25" s="52"/>
+      <c r="H25" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="53" t="s">
+      <c r="I25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="54"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="91" t="s">
+      <c r="J25" s="54"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="92"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="51" t="s">
+      <c r="O25" s="86"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="R24" s="57"/>
-      <c r="S24" s="58" t="s">
+      <c r="R25" s="57"/>
+      <c r="S25" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="T24" s="58" t="s">
+      <c r="T25" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="U24" s="59"/>
-      <c r="V24" s="60"/>
-    </row>
-    <row r="25" spans="1:22" s="6" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="8"/>
-    </row>
-    <row r="26" spans="1:22" s="67" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="84" t="s">
+      <c r="U25" s="59"/>
+      <c r="V25" s="60"/>
+    </row>
+    <row r="26" spans="1:22" s="6" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="8"/>
+    </row>
+    <row r="27" spans="1:22" s="67" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="84" t="s">
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="61"/>
-    </row>
-    <row r="27" spans="1:22" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q27" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
       <c r="U27" s="68"/>
       <c r="V27" s="61"/>
     </row>
     <row r="28" spans="1:22" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
-        <v>39</v>
-      </c>
+      <c r="A28" s="61"/>
       <c r="B28" s="61"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
       <c r="L28" s="61"/>
       <c r="M28" s="61"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
       <c r="U28" s="68"/>
       <c r="V28" s="61"/>
     </row>
-    <row r="29" spans="1:22" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+    <row r="29" spans="1:22" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
+        <v>39</v>
+      </c>
       <c r="B29" s="61"/>
-      <c r="C29" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="74" t="s">
-        <v>18</v>
-      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="71"/>
       <c r="G29" s="72"/>
       <c r="H29" s="61"/>
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
       <c r="L29" s="61"/>
       <c r="M29" s="61"/>
-      <c r="N29" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="O29" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="P29" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q29" s="74" t="s">
-        <v>52</v>
-      </c>
+      <c r="N29" s="69"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="71"/>
       <c r="R29" s="72"/>
       <c r="S29" s="61"/>
       <c r="T29" s="61"/>
       <c r="U29" s="68"/>
       <c r="V29" s="61"/>
     </row>
-    <row r="30" spans="1:22" s="6" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:22" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="72"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="O30" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q30" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="R30" s="72"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="61"/>
+    </row>
+    <row r="31" spans="1:22" s="6" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="8"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="U31"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="8"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="U32"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="32">
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N23:O23"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="L1:T1"/>
@@ -2525,27 +2573,9 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="D4:I4"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/Отчеты/Nadezhda.xlsx
+++ b/app/Отчеты/Nadezhda.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -911,7 +916,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -982,11 +987,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="54" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1020,15 +1020,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1036,8 +1027,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="54" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="54" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1108,19 +1097,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1135,9 +1130,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1148,26 +1140,48 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="9" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="12" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="13" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="4" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="4" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="5" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="4" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="5" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -1567,8 +1581,8 @@
   </sheetPr>
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:T8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12:T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,99 +1607,99 @@
     <col min="21" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="45" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:22" s="42" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="L1" s="83" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="L1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-    </row>
-    <row r="2" spans="1:22" s="45" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="83" t="s">
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+    </row>
+    <row r="2" spans="1:22" s="42" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="L2" s="83" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="L2" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-    </row>
-    <row r="3" spans="1:22" s="45" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="84" t="s">
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+    </row>
+    <row r="3" spans="1:22" s="42" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="48"/>
-      <c r="L3" s="84" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="45"/>
+      <c r="L3" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="47"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="44"/>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="9"/>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
       <c r="U4" s="7"/>
       <c r="V4" s="8"/>
     </row>
@@ -1693,26 +1707,26 @@
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="9"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="82" t="s">
+      <c r="O5" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
       <c r="U5" s="7"/>
       <c r="V5" s="8"/>
     </row>
@@ -1720,26 +1734,26 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="9"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="82" t="s">
+      <c r="O6" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
       <c r="U6" s="7"/>
       <c r="V6" s="8"/>
     </row>
@@ -1747,26 +1761,26 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="77"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="69"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="82" t="s">
+      <c r="O7" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
       <c r="U7" s="7"/>
       <c r="V7" s="8"/>
     </row>
@@ -1774,26 +1788,26 @@
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="16"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="92" t="s">
+      <c r="O8" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
       <c r="U8" s="7"/>
       <c r="V8" s="8"/>
     </row>
@@ -1807,8 +1821,8 @@
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="17"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -1819,8 +1833,8 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
       <c r="U9" s="7"/>
       <c r="V9" s="8"/>
     </row>
@@ -1828,30 +1842,30 @@
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="93" t="s">
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="93"/>
+      <c r="I10" s="86"/>
       <c r="J10" s="17"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="94" t="s">
+      <c r="O10" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="93" t="s">
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="T10" s="93"/>
+      <c r="T10" s="86"/>
       <c r="U10" s="7"/>
       <c r="V10" s="8"/>
     </row>
@@ -1859,22 +1873,22 @@
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
       <c r="J11" s="18"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
       <c r="U11" s="7"/>
       <c r="V11" s="8"/>
     </row>
@@ -1889,7 +1903,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="80" t="s">
+      <c r="I12" s="72" t="s">
         <v>61</v>
       </c>
       <c r="J12" s="19"/>
@@ -1903,7 +1917,7 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="14"/>
-      <c r="T12" s="80" t="s">
+      <c r="T12" s="72" t="s">
         <v>60</v>
       </c>
       <c r="U12" s="7"/>
@@ -1920,7 +1934,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="70" t="s">
         <v>62</v>
       </c>
       <c r="J13" s="19"/>
@@ -1934,7 +1948,7 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="14"/>
-      <c r="T13" s="78" t="s">
+      <c r="T13" s="70" t="s">
         <v>63</v>
       </c>
       <c r="U13" s="7"/>
@@ -1951,7 +1965,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="70" t="s">
         <v>33</v>
       </c>
       <c r="J14" s="19"/>
@@ -1965,7 +1979,7 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="S14" s="14"/>
-      <c r="T14" s="78" t="s">
+      <c r="T14" s="70" t="s">
         <v>42</v>
       </c>
       <c r="U14" s="7"/>
@@ -1982,7 +1996,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="78" t="s">
+      <c r="I15" s="70" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="19"/>
@@ -1996,7 +2010,7 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="14"/>
-      <c r="T15" s="78" t="s">
+      <c r="T15" s="70" t="s">
         <v>44</v>
       </c>
       <c r="U15" s="7"/>
@@ -2013,7 +2027,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="81" t="s">
+      <c r="I16" s="73" t="s">
         <v>35</v>
       </c>
       <c r="J16" s="20"/>
@@ -2027,7 +2041,7 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="S16" s="14"/>
-      <c r="T16" s="81" t="s">
+      <c r="T16" s="73" t="s">
         <v>45</v>
       </c>
       <c r="U16" s="7"/>
@@ -2044,7 +2058,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="78" t="s">
+      <c r="I17" s="70" t="s">
         <v>76</v>
       </c>
       <c r="J17" s="20"/>
@@ -2058,7 +2072,7 @@
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="14"/>
-      <c r="T17" s="78" t="s">
+      <c r="T17" s="70" t="s">
         <v>78</v>
       </c>
       <c r="U17" s="7"/>
@@ -2075,7 +2089,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="79" t="s">
+      <c r="I18" s="71" t="s">
         <v>77</v>
       </c>
       <c r="J18" s="20"/>
@@ -2089,42 +2103,42 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="14"/>
-      <c r="T18" s="79" t="s">
+      <c r="T18" s="71" t="s">
         <v>79</v>
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="8"/>
     </row>
-    <row r="19" spans="1:22" s="45" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42" t="s">
+    <row r="19" spans="1:22" s="42" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="41" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42" t="s">
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="O19" s="43"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="41" t="s">
+      <c r="O19" s="40"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="47"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="44"/>
     </row>
     <row r="20" spans="1:22" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
@@ -2152,10 +2166,10 @@
     <row r="21" spans="1:22" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="96"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="23" t="s">
         <v>3</v>
       </c>
@@ -2165,19 +2179,19 @@
       <c r="G21" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="75" t="s">
+      <c r="H21" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="76" t="s">
+      <c r="I21" s="68" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="24"/>
       <c r="L21" s="21"/>
       <c r="M21" s="22"/>
-      <c r="N21" s="95" t="s">
+      <c r="N21" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="O21" s="96"/>
+      <c r="O21" s="79"/>
       <c r="P21" s="23" t="s">
         <v>3</v>
       </c>
@@ -2187,10 +2201,10 @@
       <c r="R21" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="75" t="s">
+      <c r="S21" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="T21" s="76" t="s">
+      <c r="T21" s="68" t="s">
         <v>7</v>
       </c>
       <c r="U21" s="7"/>
@@ -2226,54 +2240,54 @@
       <c r="B23" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="31" t="s">
+      <c r="D23" s="81"/>
+      <c r="E23" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="34"/>
+      <c r="J23" s="31"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="30" t="s">
+      <c r="M23" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="N23" s="97" t="s">
+      <c r="N23" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="O23" s="98"/>
-      <c r="P23" s="31" t="s">
+      <c r="O23" s="99"/>
+      <c r="P23" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="Q23" s="31" t="s">
+      <c r="Q23" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="R23" s="32" t="s">
+      <c r="R23" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="S23" s="32" t="s">
+      <c r="S23" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="T23" s="33" t="s">
+      <c r="T23" s="96" t="s">
         <v>59</v>
       </c>
       <c r="U23" s="7"/>
       <c r="V23" s="8"/>
     </row>
     <row r="24" spans="1:22" s="6" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="26"/>
@@ -2285,7 +2299,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="28"/>
       <c r="J24" s="21"/>
-      <c r="L24" s="35"/>
+      <c r="L24" s="32"/>
       <c r="M24" s="26"/>
       <c r="N24" s="25"/>
       <c r="O24" s="21"/>
@@ -2297,220 +2311,220 @@
       <c r="U24" s="7"/>
       <c r="V24" s="8"/>
     </row>
-    <row r="25" spans="1:22" s="55" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="99" t="s">
+    <row r="25" spans="1:22" s="49" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="51" t="s">
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53" t="s">
+      <c r="G25" s="103"/>
+      <c r="H25" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="53" t="s">
+      <c r="I25" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="54"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="85" t="s">
+      <c r="J25" s="48"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="86"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="51" t="s">
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="R25" s="57"/>
-      <c r="S25" s="58" t="s">
+      <c r="R25" s="101"/>
+      <c r="S25" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="T25" s="58" t="s">
+      <c r="T25" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="U25" s="59"/>
-      <c r="V25" s="60"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="52"/>
     </row>
     <row r="26" spans="1:22" s="6" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
       <c r="Q26" s="27"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
       <c r="U26" s="7"/>
       <c r="V26" s="8"/>
     </row>
-    <row r="27" spans="1:22" s="67" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="88" t="s">
+    <row r="27" spans="1:22" s="59" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="88" t="s">
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="89"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="61"/>
-    </row>
-    <row r="28" spans="1:22" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63" t="s">
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="53"/>
+    </row>
+    <row r="28" spans="1:22" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="65" t="s">
+      <c r="G28" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="63" t="s">
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="P28" s="63" t="s">
+      <c r="P28" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="Q28" s="64" t="s">
+      <c r="Q28" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="R28" s="65" t="s">
+      <c r="R28" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="61"/>
-    </row>
-    <row r="29" spans="1:22" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="53"/>
+    </row>
+    <row r="29" spans="1:22" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="61"/>
-    </row>
-    <row r="30" spans="1:22" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="73" t="s">
+      <c r="B29" s="53"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="53"/>
+    </row>
+    <row r="30" spans="1:22" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="74" t="s">
+      <c r="F30" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="73" t="s">
+      <c r="G30" s="64"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="O30" s="74" t="s">
+      <c r="O30" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="P30" s="74" t="s">
+      <c r="P30" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="Q30" s="74" t="s">
+      <c r="Q30" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="R30" s="72"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="61"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="53"/>
     </row>
     <row r="31" spans="1:22" s="6" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
       <c r="U31" s="7"/>
       <c r="V31" s="8"/>
     </row>
@@ -2541,26 +2555,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N23:O23"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="L1:T1"/>
@@ -2573,6 +2567,26 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="D4:I4"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="N25:P25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Nadezhda.xlsx
+++ b/app/Отчеты/Nadezhda.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -165,9 +160,6 @@
     <t>${Flats.ar[1].saldo.recalc}</t>
   </si>
   <si>
-    <t>${sum1.count-1}</t>
-  </si>
-  <si>
     <t>${Flats.ar[1].counter[counter.count-1].end_val}</t>
   </si>
   <si>
@@ -178,9 +170,6 @@
   </si>
   <si>
     <t>${Flats.ar[1].counter[counter.count-1].cons_val}</t>
-  </si>
-  <si>
-    <t>${Flats.ar[1].sums[sum1.count-1].count-1}</t>
   </si>
   <si>
     <t>${Flats.ar[1].sums[sum1.count-1].usl_name}</t>
@@ -336,6 +325,12 @@
   </si>
   <si>
     <t>ИНН ${Group.group_inn}</t>
+  </si>
+  <si>
+    <t>${sum1.count}</t>
+  </si>
+  <si>
+    <t>${Flats.ar[1].sums[sum1.count-1].count}</t>
   </si>
 </sst>
 </file>
@@ -1094,84 +1089,11 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="24" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="9" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="12" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="13" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="4" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1182,6 +1104,79 @@
     </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="5" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="12" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="13" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -1581,8 +1576,8 @@
   </sheetPr>
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12:T18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1587,8 @@
     <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
     <col min="10" max="11" width="13.28515625" style="1" customWidth="1"/>
@@ -1601,105 +1597,106 @@
     <col min="14" max="14" width="26.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.140625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.85546875" style="1"/>
+    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="1"/>
     <col min="19" max="19" width="14" style="1" customWidth="1"/>
     <col min="20" max="20" width="16.42578125" style="1" customWidth="1"/>
     <col min="21" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="42" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="L1" s="92" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="L1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:22" s="42" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="L2" s="92" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="L2" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:22" s="42" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
       <c r="J3" s="45"/>
-      <c r="L3" s="93" t="s">
+      <c r="L3" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
       <c r="U3" s="43"/>
       <c r="V3" s="44"/>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="9"/>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
       <c r="U4" s="7"/>
       <c r="V4" s="8"/>
     </row>
@@ -1707,26 +1704,26 @@
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="9"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="74" t="s">
+      <c r="O5" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
       <c r="U5" s="7"/>
       <c r="V5" s="8"/>
     </row>
@@ -1734,26 +1731,26 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="9"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="74" t="s">
+      <c r="O6" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
       <c r="U6" s="7"/>
       <c r="V6" s="8"/>
     </row>
@@ -1761,26 +1758,26 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
+      <c r="D7" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="69"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
+      <c r="O7" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
       <c r="U7" s="7"/>
       <c r="V7" s="8"/>
     </row>
@@ -1788,26 +1785,26 @@
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
+      <c r="D8" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
       <c r="J8" s="16"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
+      <c r="O8" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="97"/>
       <c r="U8" s="7"/>
       <c r="V8" s="8"/>
     </row>
@@ -1816,25 +1813,25 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
       <c r="J9" s="17"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
       <c r="U9" s="7"/>
       <c r="V9" s="8"/>
     </row>
@@ -1842,30 +1839,30 @@
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="86"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="98"/>
       <c r="J10" s="17"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="87" t="s">
+      <c r="O10" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="T10" s="86"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" s="98"/>
       <c r="U10" s="7"/>
       <c r="V10" s="8"/>
     </row>
@@ -1873,22 +1870,22 @@
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
       <c r="J11" s="18"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
       <c r="U11" s="7"/>
       <c r="V11" s="8"/>
     </row>
@@ -1904,7 +1901,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
       <c r="I12" s="72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J12" s="19"/>
       <c r="L12" s="13"/>
@@ -1918,7 +1915,7 @@
       <c r="R12" s="13"/>
       <c r="S12" s="14"/>
       <c r="T12" s="72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="8"/>
@@ -1928,28 +1925,28 @@
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="I13" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J13" s="19"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="14"/>
       <c r="T13" s="70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8"/>
@@ -2052,28 +2049,28 @@
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
       <c r="I17" s="70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J17" s="20"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="14"/>
       <c r="T17" s="70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U17" s="7"/>
       <c r="V17" s="8"/>
@@ -2083,28 +2080,28 @@
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="14"/>
       <c r="I18" s="71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J18" s="20"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="14"/>
       <c r="T18" s="71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="8"/>
@@ -2113,12 +2110,12 @@
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
@@ -2127,12 +2124,12 @@
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
       <c r="N19" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O19" s="40"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R19" s="40"/>
       <c r="S19" s="40"/>
@@ -2166,10 +2163,10 @@
     <row r="21" spans="1:22" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="79"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="23" t="s">
         <v>3</v>
       </c>
@@ -2188,10 +2185,10 @@
       <c r="J21" s="24"/>
       <c r="L21" s="21"/>
       <c r="M21" s="22"/>
-      <c r="N21" s="78" t="s">
+      <c r="N21" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="O21" s="79"/>
+      <c r="O21" s="88"/>
       <c r="P21" s="23" t="s">
         <v>3</v>
       </c>
@@ -2238,50 +2235,50 @@
     <row r="23" spans="1:22" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="94" t="s">
+      <c r="D23" s="90"/>
+      <c r="E23" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="94" t="s">
+      <c r="F23" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="95" t="s">
+      <c r="G23" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="95" t="s">
+      <c r="H23" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="96" t="s">
+      <c r="I23" s="76" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="31"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="97" t="s">
+      <c r="M23" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="102"/>
+      <c r="P23" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="N23" s="98" t="s">
+      <c r="Q23" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="O23" s="99"/>
-      <c r="P23" s="94" t="s">
+      <c r="R23" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="Q23" s="94" t="s">
+      <c r="S23" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="R23" s="95" t="s">
+      <c r="T23" s="76" t="s">
         <v>57</v>
-      </c>
-      <c r="S23" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="T23" s="96" t="s">
-        <v>59</v>
       </c>
       <c r="U23" s="7"/>
       <c r="V23" s="8"/>
@@ -2314,37 +2311,37 @@
     <row r="25" spans="1:22" s="49" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" s="47"/>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="100" t="s">
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104" t="s">
+      <c r="G25" s="80"/>
+      <c r="H25" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="104" t="s">
+      <c r="I25" s="81" t="s">
         <v>33</v>
       </c>
       <c r="J25" s="48"/>
       <c r="L25" s="46"/>
       <c r="M25" s="50"/>
-      <c r="N25" s="89" t="s">
+      <c r="N25" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="90"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="100" t="s">
+      <c r="O25" s="92"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="R25" s="101"/>
-      <c r="S25" s="102" t="s">
+      <c r="R25" s="78"/>
+      <c r="S25" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="T25" s="102" t="s">
+      <c r="T25" s="79" t="s">
         <v>42</v>
       </c>
       <c r="U25" s="51"/>
@@ -2376,25 +2373,25 @@
     <row r="27" spans="1:22" s="59" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="58"/>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="84"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="96"/>
       <c r="H27" s="53"/>
       <c r="I27" s="53"/>
       <c r="J27" s="53"/>
       <c r="L27" s="58"/>
       <c r="M27" s="58"/>
-      <c r="N27" s="82" t="s">
+      <c r="N27" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="84"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="96"/>
       <c r="S27" s="53"/>
       <c r="T27" s="53"/>
       <c r="U27" s="60"/>
@@ -2486,16 +2483,16 @@
       <c r="L30" s="53"/>
       <c r="M30" s="53"/>
       <c r="N30" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="O30" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="P30" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="O30" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="P30" s="66" t="s">
+      <c r="Q30" s="66" t="s">
         <v>51</v>
-      </c>
-      <c r="Q30" s="66" t="s">
-        <v>52</v>
       </c>
       <c r="R30" s="64"/>
       <c r="S30" s="53"/>
